--- a/documents/digital/表结构说明/oms_market_info.xlsx
+++ b/documents/digital/表结构说明/oms_market_info.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_market_info" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_market_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -58,16 +64,168 @@
   </si>
   <si>
     <t>create_date</t>
+  </si>
+  <si>
+    <t>数字化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PUBCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>md_mall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MallCode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MallName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgLeve2ID</t>
+  </si>
+  <si>
+    <t>OrgLeve3ID</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>PUBCB001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCB003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCB013</t>
+  </si>
+  <si>
+    <r>
+      <t>PUBCB014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PUBCB015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCB017</t>
+  </si>
+  <si>
+    <t>PUBCB012</t>
+  </si>
+  <si>
+    <t>没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,66 +248,437 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_market_info.xlsx
+++ b/documents/digital/表结构说明/oms_market_info.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oms_market_info" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +199,11 @@
   </si>
   <si>
     <t>没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select PUBCB_ID,PUBCB001 as market_number,PUBCB003 as market_name,PUBCB012 as first_org_id,
+PUBCB013 as province_id,PUBCB014 as city_id,PUBCB015 as district_id,PUBCB017 as market_address from TB_PUBCB                                                INSERT into oms_market_info (market_number,market_name,first_org_id,province_id,city_id,district_id,market_address)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,10 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -681,4 +691,138 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_market_info.xlsx
+++ b/documents/digital/表结构说明/oms_market_info.xlsx
@@ -15,7 +15,7 @@
     <sheet name="oms_market_info" sheetId="1" r:id="rId1"/>
     <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -202,8 +202,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>select PUBCB_ID,PUBCB001 as market_number,PUBCB003 as market_name,PUBCB012 as first_org_id,
-PUBCB013 as province_id,PUBCB014 as city_id,PUBCB015 as district_id,PUBCB017 as market_address from TB_PUBCB                                                INSERT into oms_market_info (market_number,market_name,first_org_id,province_id,city_id,district_id,market_address)</t>
+    <t xml:space="preserve">SELECT
+PUBCB_ID id_uuid,
+PUBCB001 market_number,
+PUBCB003 market_name,
+PUBCB012 first_org_id,
+--second_org_id
+--first_org_name
+--second_org_name
+PUBCB013 province_id,
+PUBCB014 city_id,
+PUBCB015 district_id,
+PUBCB017 market_address
+--lon
+--lat
+from TB_PUBCB </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -258,10 +271,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,7 +558,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,118 +717,118 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/digital/表结构说明/oms_market_info.xlsx
+++ b/documents/digital/表结构说明/oms_market_info.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="33220" yWindow="-3400" windowWidth="26680" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="oms_market_info" sheetId="1" r:id="rId1"/>
     <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,7 +83,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>ms</t>
     </r>
@@ -92,7 +96,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em1</t>
     </r>
@@ -106,7 +109,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em2</t>
     </r>
@@ -114,10 +116,6 @@
   </si>
   <si>
     <t>表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_PUBCB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -132,7 +130,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>MallCode</t>
     </r>
@@ -141,12 +138,6 @@
   <si>
     <t>MallName</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrgLeve2ID</t>
-  </si>
-  <si>
-    <t>OrgLeve3ID</t>
   </si>
   <si>
     <t>Province</t>
@@ -185,7 +176,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>PUBCB015</t>
     </r>
@@ -193,13 +183,6 @@
   </si>
   <si>
     <t>PUBCB017</t>
-  </si>
-  <si>
-    <t>PUBCB012</t>
-  </si>
-  <si>
-    <t>没有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT
@@ -219,12 +202,32 @@
 from TB_PUBCB </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TB_PUBCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgLeve3ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgLeve2ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCB038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBCB039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +278,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -335,12 +339,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -370,12 +374,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -557,25 +561,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -628,76 +632,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -710,15 +714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -734,7 +738,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -750,7 +754,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -766,7 +770,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -782,7 +786,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -798,7 +802,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -814,7 +818,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
